--- a/Результаты.xlsx
+++ b/Результаты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intro_in_mod_prog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD1C968-DD8A-4374-9C68-889C495AC0BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BF735B-70C0-4969-840D-12DCF9C4D83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{E6D91174-602C-473A-A8FB-74C0D0C45DD2}"/>
+    <workbookView xWindow="4920" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{E6D91174-602C-473A-A8FB-74C0D0C45DD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Группа</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>Задание 5</t>
+  </si>
+  <si>
+    <t>Даниил Тешкин</t>
   </si>
 </sst>
 </file>
@@ -136,11 +139,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -455,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35E24D9-2ED9-481A-9E29-09A01E5F7056}">
-  <dimension ref="E7:K16"/>
+  <dimension ref="E7:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,6 +502,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
     </row>
     <row r="9" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
@@ -521,7 +526,7 @@
       <c r="F12" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
@@ -541,11 +546,18 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="F16" t="s">
+    <row r="19" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Результаты.xlsx
+++ b/Результаты.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intro_in_mod_prog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BF735B-70C0-4969-840D-12DCF9C4D83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22EDF93-60BC-4E9B-8A7F-A330CC1DC4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4920" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{E6D91174-602C-473A-A8FB-74C0D0C45DD2}"/>
   </bookViews>
@@ -462,7 +462,7 @@
   <dimension ref="E7:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,6 +527,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="4"/>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
@@ -557,7 +558,8 @@
       <c r="F20" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="2"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Результаты.xlsx
+++ b/Результаты.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intro_in_mod_prog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E22EDF93-60BC-4E9B-8A7F-A330CC1DC4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B1D490-C75A-430E-BC08-639DA6A89C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4920" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{E6D91174-602C-473A-A8FB-74C0D0C45DD2}"/>
   </bookViews>
@@ -462,7 +462,7 @@
   <dimension ref="E7:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,6 +509,7 @@
         <v>7</v>
       </c>
       <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
@@ -528,6 +529,7 @@
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
     </row>
     <row r="13" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F13" t="s">

--- a/Результаты.xlsx
+++ b/Результаты.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intro_in_mod_prog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B1D490-C75A-430E-BC08-639DA6A89C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584F321B-BE3C-48F9-BB30-2125826B81D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4920" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{E6D91174-602C-473A-A8FB-74C0D0C45DD2}"/>
   </bookViews>
@@ -462,7 +462,7 @@
   <dimension ref="E7:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,6 +510,9 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
     </row>
     <row r="10" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F10" t="s">

--- a/Результаты.xlsx
+++ b/Результаты.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intro_in_mod_prog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584F321B-BE3C-48F9-BB30-2125826B81D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A706FE0C-0B04-4923-AC15-46A4F22E04F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4920" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{E6D91174-602C-473A-A8FB-74C0D0C45DD2}"/>
   </bookViews>
@@ -461,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35E24D9-2ED9-481A-9E29-09A01E5F7056}">
   <dimension ref="E7:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,6 +533,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
+      <c r="K12" s="1"/>
     </row>
     <row r="13" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
@@ -551,15 +552,18 @@
         <v>13</v>
       </c>
       <c r="G15" s="1"/>
-    </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="K15" s="1"/>
+    </row>
+    <row r="19" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
         <v>16</v>
       </c>

--- a/Результаты.xlsx
+++ b/Результаты.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intro_in_mod_prog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A706FE0C-0B04-4923-AC15-46A4F22E04F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE0AEBE-93A2-48A4-BDB4-86FDA6114C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4920" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{E6D91174-602C-473A-A8FB-74C0D0C45DD2}"/>
   </bookViews>
@@ -462,7 +462,7 @@
   <dimension ref="E7:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,6 +533,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="5:11" x14ac:dyDescent="0.25">
@@ -554,7 +555,7 @@
       <c r="G15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="19" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>14</v>
       </c>
@@ -562,8 +563,9 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
         <v>16</v>
       </c>

--- a/Результаты.xlsx
+++ b/Результаты.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intro_in_mod_prog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE0AEBE-93A2-48A4-BDB4-86FDA6114C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C70AD32-02C6-4A93-A26C-3FC760A3505A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{E6D91174-602C-473A-A8FB-74C0D0C45DD2}"/>
+    <workbookView xWindow="4020" yWindow="1755" windowWidth="21600" windowHeight="11385" xr2:uid="{E6D91174-602C-473A-A8FB-74C0D0C45DD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -139,11 +139,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -462,7 +461,7 @@
   <dimension ref="E7:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,7 +529,7 @@
       <c r="F12" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -541,12 +540,18 @@
         <v>11</v>
       </c>
       <c r="G13" s="3"/>
+      <c r="H13" s="1"/>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
     </row>
     <row r="15" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F15" t="s">

--- a/Результаты.xlsx
+++ b/Результаты.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intro_in_mod_prog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C70AD32-02C6-4A93-A26C-3FC760A3505A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAC3973-2617-4D5D-BB40-F90224D040CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4020" yWindow="1755" windowWidth="21600" windowHeight="11385" xr2:uid="{E6D91174-602C-473A-A8FB-74C0D0C45DD2}"/>
   </bookViews>
@@ -89,7 +89,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,8 +106,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,6 +134,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -139,11 +153,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -461,7 +476,7 @@
   <dimension ref="E7:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,6 +573,8 @@
         <v>13</v>
       </c>
       <c r="G15" s="1"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="1"/>
       <c r="K15" s="1"/>
     </row>
     <row r="19" spans="6:11" x14ac:dyDescent="0.25">

--- a/Результаты.xlsx
+++ b/Результаты.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intro_in_mod_prog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CAC3973-2617-4D5D-BB40-F90224D040CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3399EE83-36A2-497F-9930-3726C8C42D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4020" yWindow="1755" windowWidth="21600" windowHeight="11385" xr2:uid="{E6D91174-602C-473A-A8FB-74C0D0C45DD2}"/>
   </bookViews>
@@ -115,7 +115,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,18 +125,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -153,12 +141,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -476,7 +463,7 @@
   <dimension ref="E7:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,7 +519,11 @@
       <c r="F10" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
     </row>
     <row r="11" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
@@ -544,7 +535,7 @@
       <c r="F12" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="2"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -554,8 +545,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="2"/>
       <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="5:11" x14ac:dyDescent="0.25">
@@ -573,7 +565,7 @@
         <v>13</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="4"/>
+      <c r="H15" s="3"/>
       <c r="I15" s="1"/>
       <c r="K15" s="1"/>
     </row>
@@ -593,6 +585,7 @@
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Результаты.xlsx
+++ b/Результаты.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intro_in_mod_prog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3399EE83-36A2-497F-9930-3726C8C42D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE6CC25-C11A-467B-9F29-EFA17682C918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4020" yWindow="1755" windowWidth="21600" windowHeight="11385" xr2:uid="{E6D91174-602C-473A-A8FB-74C0D0C45DD2}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Группа</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Даниил Тешкин</t>
+  </si>
+  <si>
+    <t>Олег Башкирцев</t>
   </si>
 </sst>
 </file>
@@ -460,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35E24D9-2ED9-481A-9E29-09A01E5F7056}">
-  <dimension ref="E7:K20"/>
+  <dimension ref="E7:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,6 +552,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
     </row>
     <row r="14" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
@@ -587,6 +591,14 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
+    <row r="21" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Результаты.xlsx
+++ b/Результаты.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intro_in_mod_prog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE6CC25-C11A-467B-9F29-EFA17682C918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA8BB7E-DACC-4A84-B90A-949036A33240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="1755" windowWidth="21600" windowHeight="11385" xr2:uid="{E6D91174-602C-473A-A8FB-74C0D0C45DD2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E6D91174-602C-473A-A8FB-74C0D0C45DD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -465,17 +465,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35E24D9-2ED9-481A-9E29-09A01E5F7056}">
   <dimension ref="E7:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E7" t="s">
         <v>0</v>
       </c>
@@ -498,7 +498,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:11" x14ac:dyDescent="0.35">
       <c r="F8" t="s">
         <v>6</v>
       </c>
@@ -508,7 +508,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:11" x14ac:dyDescent="0.35">
       <c r="F9" t="s">
         <v>7</v>
       </c>
@@ -518,7 +518,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:11" x14ac:dyDescent="0.35">
       <c r="F10" t="s">
         <v>8</v>
       </c>
@@ -528,13 +528,13 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:11" x14ac:dyDescent="0.35">
       <c r="F11" t="s">
         <v>9</v>
       </c>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:11" x14ac:dyDescent="0.35">
       <c r="F12" t="s">
         <v>10</v>
       </c>
@@ -544,7 +544,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:11" x14ac:dyDescent="0.35">
       <c r="F13" t="s">
         <v>11</v>
       </c>
@@ -554,7 +554,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:11" x14ac:dyDescent="0.35">
       <c r="F14" t="s">
         <v>12</v>
       </c>
@@ -564,7 +564,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:11" x14ac:dyDescent="0.35">
       <c r="F15" t="s">
         <v>13</v>
       </c>
@@ -573,7 +573,7 @@
       <c r="I15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="19" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F19" t="s">
         <v>14</v>
       </c>
@@ -583,20 +583,23 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F20" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="6:11" x14ac:dyDescent="0.35">
       <c r="F21" t="s">
         <v>17</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
   </sheetData>

--- a/Результаты.xlsx
+++ b/Результаты.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intro_in_mod_prog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA8BB7E-DACC-4A84-B90A-949036A33240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C115B661-A3B4-4713-B347-7F8476B513C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E6D91174-602C-473A-A8FB-74C0D0C45DD2}"/>
   </bookViews>
@@ -466,7 +466,7 @@
   <dimension ref="E7:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -571,6 +571,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="3"/>
       <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
     <row r="19" spans="6:11" x14ac:dyDescent="0.35">

--- a/Результаты.xlsx
+++ b/Результаты.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intro_in_mod_prog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C115B661-A3B4-4713-B347-7F8476B513C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E49107-939E-42BC-BE6E-78E3C64D1380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E6D91174-602C-473A-A8FB-74C0D0C45DD2}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Группа</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Олег Башкирцев</t>
+  </si>
+  <si>
+    <t>Олег Шестопалов</t>
   </si>
 </sst>
 </file>
@@ -463,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35E24D9-2ED9-481A-9E29-09A01E5F7056}">
-  <dimension ref="E7:K21"/>
+  <dimension ref="E7:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="F7" sqref="F7:K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -603,6 +606,12 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
+    <row r="22" spans="6:11" x14ac:dyDescent="0.35">
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Результаты.xlsx
+++ b/Результаты.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Intro_in_mod_prog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E49107-939E-42BC-BE6E-78E3C64D1380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96077EDD-647E-44C9-869A-79AF1B2A5348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E6D91174-602C-473A-A8FB-74C0D0C45DD2}"/>
+    <workbookView xWindow="4020" yWindow="1755" windowWidth="21615" windowHeight="11385" xr2:uid="{E6D91174-602C-473A-A8FB-74C0D0C45DD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -469,16 +469,16 @@
   <dimension ref="E7:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:K22"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>0</v>
       </c>
@@ -501,7 +501,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>6</v>
       </c>
@@ -511,7 +511,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>7</v>
       </c>
@@ -521,7 +521,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
         <v>8</v>
       </c>
@@ -531,13 +531,17 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>9</v>
       </c>
       <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="5:11" x14ac:dyDescent="0.35">
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>10</v>
       </c>
@@ -547,7 +551,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>11</v>
       </c>
@@ -557,7 +561,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="14" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>12</v>
       </c>
@@ -567,7 +571,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
     </row>
-    <row r="15" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="5:11" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>13</v>
       </c>
@@ -577,7 +581,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="19" spans="6:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>14</v>
       </c>
@@ -587,16 +591,17 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
     </row>
-    <row r="20" spans="6:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
       <c r="K20" s="1"/>
     </row>
-    <row r="21" spans="6:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>17</v>
       </c>
@@ -606,11 +611,15 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
     </row>
-    <row r="22" spans="6:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>18</v>
       </c>
       <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
